--- a/data/trans_orig/IP3113_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3113_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F3DAF77-DACB-468A-8B3C-2F2B0E12AA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E8BB64-8AF7-4DC1-BBD1-812CF87B622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{774553D9-A0F8-4426-A44B-0C03A12C974B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A985C03-2300-462B-A25A-0CBF627526E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
   <si>
     <t>Menores según si colabora o ha colaborado en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No, nunca ha colaborado</t>
@@ -107,40 +107,40 @@
     <t>Sí, colabora</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,09%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -152,139 +152,142 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>91,39%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>0,87%</t>
@@ -296,43 +299,43 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>22,08%</t>
+    <t>25,11%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -341,28 +344,28 @@
     <t>88,41%</t>
   </si>
   <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>1,01%</t>
@@ -371,7 +374,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -380,79 +383,76 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,88%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>2,22%</t>
@@ -461,43 +461,40 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>7,17%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>4,12%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -912,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA18AF75-AA73-4FAD-92E1-C584431E4B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B82BEDF-179F-4E12-A914-7881CEF9B816}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1502,7 +1499,7 @@
         <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>59</v>
@@ -1514,13 +1511,13 @@
         <v>1541</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -1529,13 +1526,13 @@
         <v>6504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1550,13 +1547,13 @@
         <v>30233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -1565,13 +1562,13 @@
         <v>15371</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -1580,13 +1577,13 @@
         <v>45604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,7 +1639,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1654,13 +1651,13 @@
         <v>156382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -1669,13 +1666,13 @@
         <v>149471</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>410</v>
@@ -1684,13 +1681,13 @@
         <v>305855</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,7 +1708,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1720,13 +1717,13 @@
         <v>9786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1735,13 +1732,13 @@
         <v>9786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,13 +1753,13 @@
         <v>14737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -1771,13 +1768,13 @@
         <v>6625</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -1786,13 +1783,13 @@
         <v>21362</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,7 +1845,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1860,13 +1857,13 @@
         <v>151585</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -1875,13 +1872,13 @@
         <v>146826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>412</v>
@@ -1890,13 +1887,13 @@
         <v>298411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,13 +1908,13 @@
         <v>1729</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1926,13 +1923,13 @@
         <v>2127</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -1941,10 +1938,10 @@
         <v>3856</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>117</v>
@@ -2150,10 +2147,10 @@
         <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2165,13 @@
         <v>66640</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>63</v>
@@ -2183,13 +2180,13 @@
         <v>51528</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>148</v>
@@ -2198,13 +2195,13 @@
         <v>118169</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,7 +2257,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP3113_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3113_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E8BB64-8AF7-4DC1-BBD1-812CF87B622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5344E1A9-279C-4D7F-8BF7-5C1B88BF203C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A985C03-2300-462B-A25A-0CBF627526E3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F1ED4ECC-65E4-43C1-B6F6-CBE741642B06}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
-  <si>
-    <t>Menores según si colabora o ha colaborado en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
+  <si>
+    <t>Menores según si colabora o ha colaborado como voluntario/a en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,436 +65,415 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No, nunca ha colaborado</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>No, ya no colabora, pero colaboró</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>Sí, colabora</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>No, ya no colabora, pero colaboró</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Sí, colabora</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -909,8 +888,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B82BEDF-179F-4E12-A914-7881CEF9B816}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8033F6DD-65B3-4385-A2D1-4FEB744707AA}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1027,10 +1006,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="D4" s="7">
-        <v>10894</v>
+        <v>104364</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1042,136 +1021,136 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="I4" s="7">
-        <v>15999</v>
+        <v>132109</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="N4" s="7">
-        <v>26893</v>
+        <v>236473</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>876</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>9159</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>12459</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1180,204 +1159,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="D7" s="7">
-        <v>10894</v>
+        <v>114251</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I7" s="7">
-        <v>15999</v>
+        <v>136285</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="N7" s="7">
-        <v>26893</v>
+        <v>250536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="D8" s="7">
-        <v>108104</v>
+        <v>169274</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="I8" s="7">
-        <v>90373</v>
+        <v>212335</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>292</v>
+        <v>525</v>
       </c>
       <c r="N8" s="7">
-        <v>198476</v>
+        <v>381609</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>816</v>
+        <v>1550</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>717</v>
+        <v>5282</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>1533</v>
+        <v>6832</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>3529</v>
+        <v>14386</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>10545</v>
+        <v>28510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>14074</v>
+        <v>42896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1386,204 +1365,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="D11" s="7">
-        <v>112448</v>
+        <v>185210</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="I11" s="7">
-        <v>101635</v>
+        <v>246127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>309</v>
+        <v>589</v>
       </c>
       <c r="N11" s="7">
-        <v>214083</v>
+        <v>431337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="D12" s="7">
-        <v>206312</v>
+        <v>153216</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="I12" s="7">
-        <v>170051</v>
+        <v>168119</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="N12" s="7">
-        <v>376363</v>
+        <v>321336</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>4963</v>
+        <v>28114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>6504</v>
+        <v>28114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>30233</v>
+        <v>6250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>15371</v>
+        <v>14970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N14" s="7">
-        <v>45604</v>
+        <v>21220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1592,204 +1571,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="D15" s="7">
-        <v>241508</v>
+        <v>187580</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="I15" s="7">
-        <v>186963</v>
+        <v>183089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>589</v>
+        <v>442</v>
       </c>
       <c r="N15" s="7">
-        <v>428472</v>
+        <v>370670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7">
-        <v>156382</v>
+        <v>143631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I16" s="7">
-        <v>149471</v>
+        <v>157064</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N16" s="7">
-        <v>305855</v>
+        <v>300695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>9786</v>
+        <v>1761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>9786</v>
+        <v>3858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>14737</v>
+        <v>18245</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>6625</v>
+        <v>18484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N18" s="7">
-        <v>21362</v>
+        <v>36728</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,204 +1777,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D19" s="7">
-        <v>171119</v>
+        <v>163972</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="I19" s="7">
-        <v>165883</v>
+        <v>177309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="N19" s="7">
-        <v>337003</v>
+        <v>341281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>204</v>
+        <v>839</v>
       </c>
       <c r="D20" s="7">
-        <v>151585</v>
+        <v>570485</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
-        <v>208</v>
+        <v>842</v>
       </c>
       <c r="I20" s="7">
-        <v>146826</v>
+        <v>669628</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
-        <v>412</v>
+        <v>1681</v>
       </c>
       <c r="N20" s="7">
-        <v>298411</v>
+        <v>1240114</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>1729</v>
+        <v>32489</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>2127</v>
+        <v>7919</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N21" s="7">
-        <v>3856</v>
+        <v>40408</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>18142</v>
+        <v>48040</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I22" s="7">
-        <v>18987</v>
+        <v>65264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="N22" s="7">
-        <v>37129</v>
+        <v>113304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,268 +1983,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>232</v>
+        <v>911</v>
       </c>
       <c r="D23" s="7">
-        <v>171456</v>
+        <v>651014</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>234</v>
+        <v>937</v>
       </c>
       <c r="I23" s="7">
-        <v>167940</v>
+        <v>742811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>466</v>
+        <v>1848</v>
       </c>
       <c r="N23" s="7">
-        <v>339396</v>
+        <v>1393825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>842</v>
-      </c>
-      <c r="D24" s="7">
-        <v>633278</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H24" s="7">
-        <v>839</v>
-      </c>
-      <c r="I24" s="7">
-        <v>572720</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1681</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1205997</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>10</v>
-      </c>
-      <c r="D25" s="7">
-        <v>7508</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="7">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7">
-        <v>14172</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M25" s="7">
-        <v>19</v>
-      </c>
-      <c r="N25" s="7">
-        <v>21680</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="7">
-        <v>85</v>
-      </c>
-      <c r="D26" s="7">
-        <v>66640</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="A24" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="7">
-        <v>63</v>
-      </c>
-      <c r="I26" s="7">
-        <v>51528</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M26" s="7">
-        <v>148</v>
-      </c>
-      <c r="N26" s="7">
-        <v>118169</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>937</v>
-      </c>
-      <c r="D27" s="7">
-        <v>707426</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>911</v>
-      </c>
-      <c r="I27" s="7">
-        <v>638420</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1848</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1345846</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>153</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
